--- a/Day08/result/kto_오스트레일리아.xlsx
+++ b/Day08/result/kto_오스트레일리아.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12795</v>
+        <v>6974</v>
       </c>
       <c r="C2" t="n">
-        <v>93</v>
+        <v>340</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>1346</v>
+        <v>1098</v>
       </c>
       <c r="G2" t="n">
-        <v>14285</v>
+        <v>8431</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>89.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12795</v>
+        <v>4516</v>
       </c>
       <c r="C3" t="n">
-        <v>93</v>
+        <v>390</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" t="n">
-        <v>1346</v>
+        <v>986</v>
       </c>
       <c r="G3" t="n">
-        <v>14285</v>
+        <v>5957</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>89.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="K3" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -579,22 +579,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12795</v>
+        <v>9510</v>
       </c>
       <c r="C4" t="n">
-        <v>93</v>
+        <v>539</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1346</v>
+        <v>1966</v>
       </c>
       <c r="G4" t="n">
-        <v>14285</v>
+        <v>12079</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>89.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K4" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12795</v>
+        <v>7928</v>
       </c>
       <c r="C5" t="n">
-        <v>93</v>
+        <v>436</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>1346</v>
+        <v>1229</v>
       </c>
       <c r="G5" t="n">
-        <v>14285</v>
+        <v>9643</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>89.59999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K5" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12795</v>
+        <v>8137</v>
       </c>
       <c r="C6" t="n">
-        <v>93</v>
+        <v>457</v>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>1346</v>
+        <v>1456</v>
       </c>
       <c r="G6" t="n">
-        <v>14285</v>
+        <v>10105</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>89.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12795</v>
+        <v>8509</v>
       </c>
       <c r="C7" t="n">
-        <v>93</v>
+        <v>468</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>1346</v>
+        <v>1284</v>
       </c>
       <c r="G7" t="n">
-        <v>14285</v>
+        <v>10309</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>89.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12795</v>
+        <v>7321</v>
       </c>
       <c r="C8" t="n">
-        <v>93</v>
+        <v>424</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>1346</v>
+        <v>1243</v>
       </c>
       <c r="G8" t="n">
-        <v>14285</v>
+        <v>9025</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>89.59999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>1.4</v>
@@ -784,22 +784,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12795</v>
+        <v>6580</v>
       </c>
       <c r="C9" t="n">
-        <v>93</v>
+        <v>479</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>1346</v>
+        <v>1400</v>
       </c>
       <c r="G9" t="n">
-        <v>14285</v>
+        <v>8551</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>89.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="K9" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="10">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12795</v>
+        <v>8988</v>
       </c>
       <c r="C10" t="n">
-        <v>93</v>
+        <v>470</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E10" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>1346</v>
+        <v>1582</v>
       </c>
       <c r="G10" t="n">
-        <v>14285</v>
+        <v>11108</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>89.59999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="11">
@@ -866,22 +866,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12795</v>
+        <v>8192</v>
       </c>
       <c r="C11" t="n">
-        <v>93</v>
+        <v>550</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>1346</v>
+        <v>1517</v>
       </c>
       <c r="G11" t="n">
-        <v>14285</v>
+        <v>10388</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>89.59999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12795</v>
+        <v>5995</v>
       </c>
       <c r="C12" t="n">
-        <v>93</v>
+        <v>472</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>1346</v>
+        <v>1104</v>
       </c>
       <c r="G12" t="n">
-        <v>14285</v>
+        <v>7643</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>89.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="13">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12795</v>
+        <v>7998</v>
       </c>
       <c r="C13" t="n">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="D13" t="n">
         <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>1346</v>
+        <v>875</v>
       </c>
       <c r="G13" t="n">
-        <v>14285</v>
+        <v>9170</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>89.59999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="K13" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12795</v>
+        <v>6023</v>
       </c>
       <c r="C14" t="n">
-        <v>93</v>
+        <v>337</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F14" t="n">
-        <v>1346</v>
+        <v>1136</v>
       </c>
       <c r="G14" t="n">
-        <v>14285</v>
+        <v>7543</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>89.59999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="K14" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
@@ -1030,22 +1030,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12795</v>
+        <v>4376</v>
       </c>
       <c r="C15" t="n">
-        <v>93</v>
+        <v>380</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F15" t="n">
-        <v>1346</v>
+        <v>1094</v>
       </c>
       <c r="G15" t="n">
-        <v>14285</v>
+        <v>5916</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>89.59999999999999</v>
+        <v>74</v>
       </c>
       <c r="K15" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12795</v>
+        <v>6742</v>
       </c>
       <c r="C16" t="n">
-        <v>93</v>
+        <v>435</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1346</v>
+        <v>1734</v>
       </c>
       <c r="G16" t="n">
-        <v>14285</v>
+        <v>8952</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>89.59999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="K16" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17">
@@ -1112,22 +1112,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12795</v>
+        <v>10886</v>
       </c>
       <c r="C17" t="n">
+        <v>408</v>
+      </c>
+      <c r="D17" t="n">
         <v>93</v>
       </c>
-      <c r="D17" t="n">
-        <v>17</v>
-      </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>1346</v>
+        <v>1931</v>
       </c>
       <c r="G17" t="n">
-        <v>14285</v>
+        <v>13323</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>89.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K17" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12795</v>
+        <v>8523</v>
       </c>
       <c r="C18" t="n">
-        <v>93</v>
+        <v>497</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E18" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>1346</v>
+        <v>1685</v>
       </c>
       <c r="G18" t="n">
-        <v>14285</v>
+        <v>10757</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>89.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K18" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19">
@@ -1194,22 +1194,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12795</v>
+        <v>8096</v>
       </c>
       <c r="C19" t="n">
-        <v>93</v>
+        <v>441</v>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>1346</v>
+        <v>898</v>
       </c>
       <c r="G19" t="n">
-        <v>14285</v>
+        <v>9470</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>89.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K19" t="n">
         <v>1.4</v>
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12795</v>
+        <v>8962</v>
       </c>
       <c r="C20" t="n">
-        <v>93</v>
+        <v>385</v>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
-        <v>1346</v>
+        <v>1107</v>
       </c>
       <c r="G20" t="n">
-        <v>14285</v>
+        <v>10495</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>89.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="21">
@@ -1276,22 +1276,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12795</v>
+        <v>7837</v>
       </c>
       <c r="C21" t="n">
-        <v>93</v>
+        <v>492</v>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F21" t="n">
-        <v>1346</v>
+        <v>1271</v>
       </c>
       <c r="G21" t="n">
-        <v>14285</v>
+        <v>9684</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>89.59999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="22">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12795</v>
+        <v>9885</v>
       </c>
       <c r="C22" t="n">
-        <v>93</v>
+        <v>479</v>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E22" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>1346</v>
+        <v>1434</v>
       </c>
       <c r="G22" t="n">
-        <v>14285</v>
+        <v>11857</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>89.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23">
@@ -1358,22 +1358,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12795</v>
+        <v>11161</v>
       </c>
       <c r="C23" t="n">
-        <v>93</v>
+        <v>544</v>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E23" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>1346</v>
+        <v>2440</v>
       </c>
       <c r="G23" t="n">
-        <v>14285</v>
+        <v>14239</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>89.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12795</v>
+        <v>7573</v>
       </c>
       <c r="C24" t="n">
-        <v>93</v>
+        <v>467</v>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>1346</v>
+        <v>1198</v>
       </c>
       <c r="G24" t="n">
-        <v>14285</v>
+        <v>9293</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>89.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K24" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="25">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12795</v>
+        <v>9833</v>
       </c>
       <c r="C25" t="n">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>1346</v>
+        <v>902</v>
       </c>
       <c r="G25" t="n">
-        <v>14285</v>
+        <v>10965</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>89.59999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="K25" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26">
@@ -1481,22 +1481,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12795</v>
+        <v>7823</v>
       </c>
       <c r="C26" t="n">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>1346</v>
+        <v>1147</v>
       </c>
       <c r="G26" t="n">
-        <v>14285</v>
+        <v>9241</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>89.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="K26" t="n">
         <v>1.4</v>
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12795</v>
+        <v>6487</v>
       </c>
       <c r="C27" t="n">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E27" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F27" t="n">
-        <v>1346</v>
+        <v>1867</v>
       </c>
       <c r="G27" t="n">
-        <v>14285</v>
+        <v>8672</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>89.59999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="K27" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="28">
@@ -1563,22 +1563,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12795</v>
+        <v>8407</v>
       </c>
       <c r="C28" t="n">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="D28" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E28" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>1346</v>
+        <v>1035</v>
       </c>
       <c r="G28" t="n">
-        <v>14285</v>
+        <v>9801</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1591,10 +1591,10 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>89.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K28" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="29">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12795</v>
+        <v>9326</v>
       </c>
       <c r="C29" t="n">
-        <v>93</v>
+        <v>340</v>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E29" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1346</v>
+        <v>1097</v>
       </c>
       <c r="G29" t="n">
-        <v>14285</v>
+        <v>10807</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1632,10 +1632,10 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>89.59999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="K29" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="30">
@@ -1645,22 +1645,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12795</v>
+        <v>8667</v>
       </c>
       <c r="C30" t="n">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E30" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>1346</v>
+        <v>1187</v>
       </c>
       <c r="G30" t="n">
-        <v>14285</v>
+        <v>10269</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>89.59999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="31">
@@ -1686,22 +1686,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12795</v>
+        <v>9153</v>
       </c>
       <c r="C31" t="n">
-        <v>93</v>
+        <v>308</v>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>1346</v>
+        <v>1050</v>
       </c>
       <c r="G31" t="n">
-        <v>14285</v>
+        <v>10545</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1714,10 +1714,10 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>89.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="K31" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="32">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12795</v>
+        <v>9283</v>
       </c>
       <c r="C32" t="n">
-        <v>93</v>
+        <v>296</v>
       </c>
       <c r="D32" t="n">
+        <v>25</v>
+      </c>
+      <c r="E32" t="n">
         <v>17</v>
       </c>
-      <c r="E32" t="n">
-        <v>34</v>
-      </c>
       <c r="F32" t="n">
-        <v>1346</v>
+        <v>1183</v>
       </c>
       <c r="G32" t="n">
-        <v>14285</v>
+        <v>10804</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>89.59999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="33">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12795</v>
+        <v>9865</v>
       </c>
       <c r="C33" t="n">
-        <v>93</v>
+        <v>282</v>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E33" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F33" t="n">
-        <v>1346</v>
+        <v>2334</v>
       </c>
       <c r="G33" t="n">
-        <v>14285</v>
+        <v>12569</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>89.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K33" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="34">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12795</v>
+        <v>10860</v>
       </c>
       <c r="C34" t="n">
-        <v>93</v>
+        <v>338</v>
       </c>
       <c r="D34" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E34" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
-        <v>1346</v>
+        <v>1150</v>
       </c>
       <c r="G34" t="n">
-        <v>14285</v>
+        <v>12416</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>89.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K34" t="n">
         <v>1.4</v>
@@ -1850,22 +1850,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12795</v>
+        <v>11424</v>
       </c>
       <c r="C35" t="n">
-        <v>93</v>
+        <v>391</v>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E35" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F35" t="n">
-        <v>1346</v>
+        <v>2601</v>
       </c>
       <c r="G35" t="n">
-        <v>14285</v>
+        <v>14468</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>89.59999999999999</v>
+        <v>79</v>
       </c>
       <c r="K35" t="n">
         <v>1.4</v>
@@ -1891,22 +1891,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12795</v>
+        <v>6866</v>
       </c>
       <c r="C36" t="n">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E36" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>1346</v>
+        <v>1390</v>
       </c>
       <c r="G36" t="n">
-        <v>14285</v>
+        <v>8621</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1919,10 +1919,10 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>89.59999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12795</v>
+        <v>9444</v>
       </c>
       <c r="C37" t="n">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="D37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>1346</v>
+        <v>943</v>
       </c>
       <c r="G37" t="n">
-        <v>14285</v>
+        <v>10599</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>89.59999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="K37" t="n">
         <v>1.4</v>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12795</v>
+        <v>7496</v>
       </c>
       <c r="C38" t="n">
-        <v>93</v>
+        <v>356</v>
       </c>
       <c r="D38" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E38" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>1346</v>
+        <v>1076</v>
       </c>
       <c r="G38" t="n">
-        <v>14285</v>
+        <v>8951</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>89.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K38" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="39">
@@ -2014,22 +2014,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12795</v>
+        <v>5160</v>
       </c>
       <c r="C39" t="n">
-        <v>93</v>
+        <v>279</v>
       </c>
       <c r="D39" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E39" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F39" t="n">
-        <v>1346</v>
+        <v>1015</v>
       </c>
       <c r="G39" t="n">
-        <v>14285</v>
+        <v>6522</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2042,10 +2042,10 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>89.59999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40">
@@ -2055,22 +2055,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12795</v>
+        <v>11679</v>
       </c>
       <c r="C40" t="n">
-        <v>93</v>
+        <v>370</v>
       </c>
       <c r="D40" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E40" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>1346</v>
+        <v>3942</v>
       </c>
       <c r="G40" t="n">
-        <v>14285</v>
+        <v>16032</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>89.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="K40" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41">
@@ -2096,22 +2096,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>12795</v>
+        <v>8148</v>
       </c>
       <c r="C41" t="n">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="D41" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E41" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>1346</v>
+        <v>1902</v>
       </c>
       <c r="G41" t="n">
-        <v>14285</v>
+        <v>10458</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>89.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="42">
@@ -2137,22 +2137,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12795</v>
+        <v>7674</v>
       </c>
       <c r="C42" t="n">
-        <v>93</v>
+        <v>372</v>
       </c>
       <c r="D42" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E42" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>1346</v>
+        <v>1858</v>
       </c>
       <c r="G42" t="n">
-        <v>14285</v>
+        <v>9956</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2165,10 +2165,10 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>89.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="43">
@@ -2178,22 +2178,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12795</v>
+        <v>8804</v>
       </c>
       <c r="C43" t="n">
-        <v>93</v>
+        <v>452</v>
       </c>
       <c r="D43" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E43" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>1346</v>
+        <v>1744</v>
       </c>
       <c r="G43" t="n">
-        <v>14285</v>
+        <v>11058</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>89.59999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="44">
@@ -2219,22 +2219,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12795</v>
+        <v>8045</v>
       </c>
       <c r="C44" t="n">
-        <v>93</v>
+        <v>417</v>
       </c>
       <c r="D44" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E44" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F44" t="n">
-        <v>1346</v>
+        <v>1480</v>
       </c>
       <c r="G44" t="n">
-        <v>14285</v>
+        <v>10012</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2247,10 +2247,10 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>89.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="45">
@@ -2260,22 +2260,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>12795</v>
+        <v>6652</v>
       </c>
       <c r="C45" t="n">
-        <v>93</v>
+        <v>457</v>
       </c>
       <c r="D45" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E45" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F45" t="n">
-        <v>1346</v>
+        <v>1589</v>
       </c>
       <c r="G45" t="n">
-        <v>14285</v>
+        <v>8773</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>89.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="K45" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="46">
@@ -2301,22 +2301,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12795</v>
+        <v>9818</v>
       </c>
       <c r="C46" t="n">
-        <v>93</v>
+        <v>481</v>
       </c>
       <c r="D46" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E46" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F46" t="n">
-        <v>1346</v>
+        <v>1288</v>
       </c>
       <c r="G46" t="n">
-        <v>14285</v>
+        <v>11647</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>89.59999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K46" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="47">
@@ -2342,22 +2342,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>12795</v>
+        <v>9017</v>
       </c>
       <c r="C47" t="n">
-        <v>93</v>
+        <v>491</v>
       </c>
       <c r="D47" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E47" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>1346</v>
+        <v>1580</v>
       </c>
       <c r="G47" t="n">
-        <v>14285</v>
+        <v>11148</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>89.59999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="48">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12795</v>
+        <v>6315</v>
       </c>
       <c r="C48" t="n">
-        <v>93</v>
+        <v>484</v>
       </c>
       <c r="D48" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E48" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F48" t="n">
-        <v>1346</v>
+        <v>961</v>
       </c>
       <c r="G48" t="n">
-        <v>14285</v>
+        <v>7831</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>89.59999999999999</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="49">
@@ -2424,22 +2424,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>12795</v>
+        <v>9867</v>
       </c>
       <c r="C49" t="n">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="D49" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E49" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F49" t="n">
-        <v>1346</v>
+        <v>973</v>
       </c>
       <c r="G49" t="n">
-        <v>14285</v>
+        <v>11172</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2452,10 +2452,10 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>89.59999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="K49" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="50">
@@ -2465,22 +2465,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>12795</v>
+        <v>7427</v>
       </c>
       <c r="C50" t="n">
-        <v>93</v>
+        <v>427</v>
       </c>
       <c r="D50" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E50" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F50" t="n">
-        <v>1346</v>
+        <v>1175</v>
       </c>
       <c r="G50" t="n">
-        <v>14285</v>
+        <v>9073</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2493,10 +2493,10 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>89.59999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="51">
@@ -2506,22 +2506,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>12795</v>
+        <v>5552</v>
       </c>
       <c r="C51" t="n">
-        <v>93</v>
+        <v>426</v>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E51" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F51" t="n">
-        <v>1346</v>
+        <v>1049</v>
       </c>
       <c r="G51" t="n">
-        <v>14285</v>
+        <v>7106</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2534,10 +2534,10 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>89.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="52">
@@ -2547,22 +2547,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>12795</v>
+        <v>7474</v>
       </c>
       <c r="C52" t="n">
-        <v>93</v>
+        <v>531</v>
       </c>
       <c r="D52" t="n">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="E52" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F52" t="n">
-        <v>1346</v>
+        <v>1687</v>
       </c>
       <c r="G52" t="n">
-        <v>14285</v>
+        <v>9787</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>89.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="53">
@@ -2588,22 +2588,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>12795</v>
+        <v>11557</v>
       </c>
       <c r="C53" t="n">
-        <v>93</v>
+        <v>451</v>
       </c>
       <c r="D53" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E53" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>1346</v>
+        <v>1618</v>
       </c>
       <c r="G53" t="n">
-        <v>14285</v>
+        <v>13689</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>89.59999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="54">
@@ -2629,22 +2629,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>12795</v>
+        <v>9298</v>
       </c>
       <c r="C54" t="n">
-        <v>93</v>
+        <v>872</v>
       </c>
       <c r="D54" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E54" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>1346</v>
+        <v>1888</v>
       </c>
       <c r="G54" t="n">
-        <v>14285</v>
+        <v>12103</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>89.59999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="K54" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>12795</v>
+        <v>10111</v>
       </c>
       <c r="C55" t="n">
-        <v>93</v>
+        <v>438</v>
       </c>
       <c r="D55" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E55" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>1346</v>
+        <v>2085</v>
       </c>
       <c r="G55" t="n">
-        <v>14285</v>
+        <v>12662</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>89.59999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="56">
@@ -2711,22 +2711,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>12795</v>
+        <v>9499</v>
       </c>
       <c r="C56" t="n">
-        <v>93</v>
+        <v>375</v>
       </c>
       <c r="D56" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E56" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F56" t="n">
-        <v>1346</v>
+        <v>2362</v>
       </c>
       <c r="G56" t="n">
-        <v>14285</v>
+        <v>12261</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>89.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="K56" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="57">
@@ -2752,22 +2752,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>12795</v>
+        <v>6966</v>
       </c>
       <c r="C57" t="n">
-        <v>93</v>
+        <v>422</v>
       </c>
       <c r="D57" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E57" t="n">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="F57" t="n">
-        <v>1346</v>
+        <v>1661</v>
       </c>
       <c r="G57" t="n">
-        <v>14285</v>
+        <v>9172</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2780,10 +2780,10 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>89.59999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58">
@@ -2793,22 +2793,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>12795</v>
+        <v>12506</v>
       </c>
       <c r="C58" t="n">
-        <v>93</v>
+        <v>506</v>
       </c>
       <c r="D58" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E58" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F58" t="n">
-        <v>1346</v>
+        <v>3054</v>
       </c>
       <c r="G58" t="n">
-        <v>14285</v>
+        <v>16121</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>89.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="59">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>12795</v>
+        <v>11048</v>
       </c>
       <c r="C59" t="n">
-        <v>93</v>
+        <v>376</v>
       </c>
       <c r="D59" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E59" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>1346</v>
+        <v>2451</v>
       </c>
       <c r="G59" t="n">
-        <v>14285</v>
+        <v>13925</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>89.59999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K59" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2875,22 +2875,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>12795</v>
+        <v>9152</v>
       </c>
       <c r="C60" t="n">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="D60" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E60" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F60" t="n">
-        <v>1346</v>
+        <v>2502</v>
       </c>
       <c r="G60" t="n">
-        <v>14285</v>
+        <v>12071</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2903,10 +2903,10 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>89.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="K60" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12795</v>
+        <v>11843</v>
       </c>
       <c r="C61" t="n">
-        <v>93</v>
+        <v>280</v>
       </c>
       <c r="D61" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E61" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F61" t="n">
-        <v>1346</v>
+        <v>1092</v>
       </c>
       <c r="G61" t="n">
-        <v>14285</v>
+        <v>13238</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2944,10 +2944,10 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>89.59999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="K61" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="62">
@@ -2957,22 +2957,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>12795</v>
+        <v>8370</v>
       </c>
       <c r="C62" t="n">
-        <v>93</v>
+        <v>414</v>
       </c>
       <c r="D62" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F62" t="n">
-        <v>1346</v>
+        <v>1178</v>
       </c>
       <c r="G62" t="n">
-        <v>14285</v>
+        <v>9997</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>89.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K62" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="63">
@@ -2998,22 +2998,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>12795</v>
+        <v>5491</v>
       </c>
       <c r="C63" t="n">
-        <v>93</v>
+        <v>303</v>
       </c>
       <c r="D63" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E63" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F63" t="n">
-        <v>1346</v>
+        <v>1108</v>
       </c>
       <c r="G63" t="n">
-        <v>14285</v>
+        <v>7010</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>89.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="K63" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="64">
@@ -3039,22 +3039,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>12795</v>
+        <v>8791</v>
       </c>
       <c r="C64" t="n">
-        <v>93</v>
+        <v>337</v>
       </c>
       <c r="D64" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E64" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F64" t="n">
-        <v>1346</v>
+        <v>1832</v>
       </c>
       <c r="G64" t="n">
-        <v>14285</v>
+        <v>11005</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>89.59999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="65">
@@ -3080,22 +3080,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>12795</v>
+        <v>12288</v>
       </c>
       <c r="C65" t="n">
-        <v>93</v>
+        <v>322</v>
       </c>
       <c r="D65" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E65" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>1346</v>
+        <v>2879</v>
       </c>
       <c r="G65" t="n">
-        <v>14285</v>
+        <v>15526</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>89.59999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="66">
@@ -3121,22 +3121,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>12795</v>
+        <v>11252</v>
       </c>
       <c r="C66" t="n">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="D66" t="n">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E66" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F66" t="n">
-        <v>1346</v>
+        <v>2730</v>
       </c>
       <c r="G66" t="n">
-        <v>14285</v>
+        <v>14409</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>89.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="67">
@@ -3162,22 +3162,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>12795</v>
+        <v>7045</v>
       </c>
       <c r="C67" t="n">
-        <v>93</v>
+        <v>291</v>
       </c>
       <c r="D67" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E67" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F67" t="n">
-        <v>1346</v>
+        <v>1102</v>
       </c>
       <c r="G67" t="n">
-        <v>14285</v>
+        <v>8504</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>89.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K67" t="n">
         <v>1.4</v>
@@ -3203,22 +3203,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>12795</v>
+        <v>6850</v>
       </c>
       <c r="C68" t="n">
-        <v>93</v>
+        <v>307</v>
       </c>
       <c r="D68" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E68" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F68" t="n">
-        <v>1346</v>
+        <v>1803</v>
       </c>
       <c r="G68" t="n">
-        <v>14285</v>
+        <v>9017</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>89.59999999999999</v>
+        <v>76</v>
       </c>
       <c r="K68" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="69">
@@ -3244,22 +3244,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>12795</v>
+        <v>6209</v>
       </c>
       <c r="C69" t="n">
-        <v>93</v>
+        <v>394</v>
       </c>
       <c r="D69" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E69" t="n">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="F69" t="n">
-        <v>1346</v>
+        <v>1728</v>
       </c>
       <c r="G69" t="n">
-        <v>14285</v>
+        <v>8458</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>89.59999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70">
@@ -3285,22 +3285,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>12795</v>
+        <v>10384</v>
       </c>
       <c r="C70" t="n">
-        <v>93</v>
+        <v>331</v>
       </c>
       <c r="D70" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E70" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F70" t="n">
-        <v>1346</v>
+        <v>1494</v>
       </c>
       <c r="G70" t="n">
-        <v>14285</v>
+        <v>12273</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>89.59999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K70" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="71">
@@ -3326,22 +3326,22 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>12795</v>
+        <v>10887</v>
       </c>
       <c r="C71" t="n">
-        <v>93</v>
+        <v>399</v>
       </c>
       <c r="D71" t="n">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="E71" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>1346</v>
+        <v>2607</v>
       </c>
       <c r="G71" t="n">
-        <v>14285</v>
+        <v>14002</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>89.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="K71" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>12795</v>
+        <v>8211</v>
       </c>
       <c r="C72" t="n">
-        <v>93</v>
+        <v>358</v>
       </c>
       <c r="D72" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E72" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F72" t="n">
-        <v>1346</v>
+        <v>1144</v>
       </c>
       <c r="G72" t="n">
-        <v>14285</v>
+        <v>9759</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3395,10 +3395,10 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>89.59999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="73">
@@ -3408,22 +3408,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>12795</v>
+        <v>11848</v>
       </c>
       <c r="C73" t="n">
-        <v>93</v>
+        <v>326</v>
       </c>
       <c r="D73" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E73" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>1346</v>
+        <v>1106</v>
       </c>
       <c r="G73" t="n">
-        <v>14285</v>
+        <v>13306</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>89.59999999999999</v>
+        <v>89</v>
       </c>
       <c r="K73" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="74">
@@ -3449,22 +3449,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>12795</v>
+        <v>8117</v>
       </c>
       <c r="C74" t="n">
-        <v>93</v>
+        <v>429</v>
       </c>
       <c r="D74" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E74" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F74" t="n">
-        <v>1346</v>
+        <v>1378</v>
       </c>
       <c r="G74" t="n">
-        <v>14285</v>
+        <v>9980</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3477,10 +3477,10 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>89.59999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K74" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="75">
@@ -3490,22 +3490,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>12795</v>
+        <v>5563</v>
       </c>
       <c r="C75" t="n">
-        <v>93</v>
+        <v>380</v>
       </c>
       <c r="D75" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E75" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F75" t="n">
-        <v>1346</v>
+        <v>1301</v>
       </c>
       <c r="G75" t="n">
-        <v>14285</v>
+        <v>7338</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3518,10 +3518,10 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>89.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="K75" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="76">
@@ -3531,22 +3531,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>12795</v>
+        <v>11514</v>
       </c>
       <c r="C76" t="n">
-        <v>93</v>
+        <v>382</v>
       </c>
       <c r="D76" t="n">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="E76" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>1346</v>
+        <v>1292</v>
       </c>
       <c r="G76" t="n">
-        <v>14285</v>
+        <v>13319</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>89.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>12795</v>
+        <v>12295</v>
       </c>
       <c r="C77" t="n">
-        <v>93</v>
+        <v>377</v>
       </c>
       <c r="D77" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E77" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>1346</v>
+        <v>1362</v>
       </c>
       <c r="G77" t="n">
-        <v>14285</v>
+        <v>14065</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3600,10 +3600,10 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>89.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3613,22 +3613,22 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>12795</v>
+        <v>11084</v>
       </c>
       <c r="C78" t="n">
-        <v>93</v>
+        <v>441</v>
       </c>
       <c r="D78" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E78" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F78" t="n">
-        <v>1346</v>
+        <v>1317</v>
       </c>
       <c r="G78" t="n">
-        <v>14285</v>
+        <v>12895</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>89.59999999999999</v>
+        <v>86</v>
       </c>
       <c r="K78" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="79">
@@ -3654,22 +3654,22 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>12795</v>
+        <v>11350</v>
       </c>
       <c r="C79" t="n">
-        <v>93</v>
+        <v>390</v>
       </c>
       <c r="D79" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E79" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F79" t="n">
-        <v>1346</v>
+        <v>1211</v>
       </c>
       <c r="G79" t="n">
-        <v>14285</v>
+        <v>13020</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>89.59999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="K79" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="80">
@@ -3695,22 +3695,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>12795</v>
+        <v>13183</v>
       </c>
       <c r="C80" t="n">
-        <v>93</v>
+        <v>384</v>
       </c>
       <c r="D80" t="n">
         <v>17</v>
       </c>
       <c r="E80" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F80" t="n">
-        <v>1346</v>
+        <v>1513</v>
       </c>
       <c r="G80" t="n">
-        <v>14285</v>
+        <v>15117</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3723,10 +3723,10 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>89.59999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="K80" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="81">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>12795</v>
+        <v>7816</v>
       </c>
       <c r="C81" t="n">
-        <v>93</v>
+        <v>343</v>
       </c>
       <c r="D81" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="F81" t="n">
-        <v>1346</v>
+        <v>1484</v>
       </c>
       <c r="G81" t="n">
-        <v>14285</v>
+        <v>9732</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>89.59999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K81" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="82">
@@ -3777,22 +3777,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>12795</v>
+        <v>12881</v>
       </c>
       <c r="C82" t="n">
-        <v>93</v>
+        <v>391</v>
       </c>
       <c r="D82" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E82" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F82" t="n">
-        <v>1346</v>
+        <v>1475</v>
       </c>
       <c r="G82" t="n">
-        <v>14285</v>
+        <v>14784</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3805,10 +3805,10 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>89.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="83">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>12795</v>
+        <v>12159</v>
       </c>
       <c r="C83" t="n">
-        <v>93</v>
+        <v>401</v>
       </c>
       <c r="D83" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E83" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>1346</v>
+        <v>1411</v>
       </c>
       <c r="G83" t="n">
-        <v>14285</v>
+        <v>14021</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3846,10 +3846,10 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>89.59999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="K83" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="84">
@@ -3859,22 +3859,22 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>12795</v>
+        <v>10230</v>
       </c>
       <c r="C84" t="n">
-        <v>93</v>
+        <v>445</v>
       </c>
       <c r="D84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F84" t="n">
-        <v>1346</v>
+        <v>1213</v>
       </c>
       <c r="G84" t="n">
-        <v>14285</v>
+        <v>11927</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3887,10 +3887,10 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>89.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K84" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3900,22 +3900,22 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>12795</v>
+        <v>14056</v>
       </c>
       <c r="C85" t="n">
-        <v>93</v>
+        <v>403</v>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F85" t="n">
-        <v>1346</v>
+        <v>1294</v>
       </c>
       <c r="G85" t="n">
-        <v>14285</v>
+        <v>15781</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3928,10 +3928,10 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>89.59999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="86">
@@ -3941,22 +3941,22 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>12795</v>
+        <v>9892</v>
       </c>
       <c r="C86" t="n">
-        <v>93</v>
+        <v>572</v>
       </c>
       <c r="D86" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E86" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F86" t="n">
-        <v>1346</v>
+        <v>1477</v>
       </c>
       <c r="G86" t="n">
-        <v>14285</v>
+        <v>11984</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3969,10 +3969,10 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>89.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K86" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3982,22 +3982,22 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>12795</v>
+        <v>6778</v>
       </c>
       <c r="C87" t="n">
-        <v>93</v>
+        <v>516</v>
       </c>
       <c r="D87" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E87" t="n">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="F87" t="n">
-        <v>1346</v>
+        <v>1153</v>
       </c>
       <c r="G87" t="n">
-        <v>14285</v>
+        <v>8550</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -4010,10 +4010,10 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>89.59999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K87" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="88">
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>12795</v>
+        <v>11071</v>
       </c>
       <c r="C88" t="n">
-        <v>93</v>
+        <v>516</v>
       </c>
       <c r="D88" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E88" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F88" t="n">
-        <v>1346</v>
+        <v>1189</v>
       </c>
       <c r="G88" t="n">
-        <v>14285</v>
+        <v>12801</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>89.59999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="K88" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="89">
@@ -4064,22 +4064,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>12795</v>
+        <v>17316</v>
       </c>
       <c r="C89" t="n">
-        <v>93</v>
+        <v>474</v>
       </c>
       <c r="D89" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E89" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F89" t="n">
-        <v>1346</v>
+        <v>1218</v>
       </c>
       <c r="G89" t="n">
-        <v>14285</v>
+        <v>19040</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -4092,10 +4092,10 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>89.59999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="K89" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -4105,22 +4105,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>12795</v>
+        <v>9696</v>
       </c>
       <c r="C90" t="n">
-        <v>93</v>
+        <v>454</v>
       </c>
       <c r="D90" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E90" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F90" t="n">
-        <v>1346</v>
+        <v>1317</v>
       </c>
       <c r="G90" t="n">
-        <v>14285</v>
+        <v>11518</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>89.59999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K90" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="91">
@@ -4146,22 +4146,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>12795</v>
+        <v>11985</v>
       </c>
       <c r="C91" t="n">
-        <v>93</v>
+        <v>363</v>
       </c>
       <c r="D91" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E91" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F91" t="n">
-        <v>1346</v>
+        <v>1051</v>
       </c>
       <c r="G91" t="n">
-        <v>14285</v>
+        <v>13453</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>89.59999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="92">
@@ -4187,22 +4187,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>12795</v>
+        <v>10694</v>
       </c>
       <c r="C92" t="n">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="D92" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E92" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F92" t="n">
-        <v>1346</v>
+        <v>1316</v>
       </c>
       <c r="G92" t="n">
-        <v>14285</v>
+        <v>12236</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>89.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K92" t="n">
         <v>1.4</v>
@@ -4228,22 +4228,22 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>12795</v>
+        <v>8858</v>
       </c>
       <c r="C93" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D93" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E93" t="n">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="F93" t="n">
-        <v>1346</v>
+        <v>1274</v>
       </c>
       <c r="G93" t="n">
-        <v>14285</v>
+        <v>10362</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -4256,10 +4256,10 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>89.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K93" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="94">
@@ -4269,22 +4269,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>12795</v>
+        <v>11728</v>
       </c>
       <c r="C94" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D94" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E94" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
-        <v>1346</v>
+        <v>1136</v>
       </c>
       <c r="G94" t="n">
-        <v>14285</v>
+        <v>12979</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>89.59999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="K94" t="n">
         <v>1.4</v>
@@ -4310,22 +4310,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>12795</v>
+        <v>10299</v>
       </c>
       <c r="C95" t="n">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D95" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E95" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F95" t="n">
-        <v>1346</v>
+        <v>1788</v>
       </c>
       <c r="G95" t="n">
-        <v>14285</v>
+        <v>12299</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>89.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K95" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="96">
@@ -4351,22 +4351,22 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>12795</v>
+        <v>8529</v>
       </c>
       <c r="C96" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D96" t="n">
         <v>17</v>
       </c>
       <c r="E96" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F96" t="n">
-        <v>1346</v>
+        <v>1529</v>
       </c>
       <c r="G96" t="n">
-        <v>14285</v>
+        <v>10190</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>89.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K96" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4392,22 +4392,22 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>12795</v>
+        <v>13652</v>
       </c>
       <c r="C97" t="n">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D97" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E97" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F97" t="n">
-        <v>1346</v>
+        <v>1234</v>
       </c>
       <c r="G97" t="n">
-        <v>14285</v>
+        <v>14996</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>89.59999999999999</v>
+        <v>91</v>
       </c>
       <c r="K97" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="98">
@@ -4433,22 +4433,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>12795</v>
+        <v>10107</v>
       </c>
       <c r="C98" t="n">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D98" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E98" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F98" t="n">
-        <v>1346</v>
+        <v>1416</v>
       </c>
       <c r="G98" t="n">
-        <v>14285</v>
+        <v>11688</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>89.59999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="K98" t="n">
         <v>1.4</v>
@@ -4474,22 +4474,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>12795</v>
+        <v>7333</v>
       </c>
       <c r="C99" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D99" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E99" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F99" t="n">
-        <v>1346</v>
+        <v>1237</v>
       </c>
       <c r="G99" t="n">
-        <v>14285</v>
+        <v>8769</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -4502,10 +4502,10 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>89.59999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K99" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="100">
@@ -4515,22 +4515,22 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>12795</v>
+        <v>9296</v>
       </c>
       <c r="C100" t="n">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D100" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E100" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>1346</v>
+        <v>1263</v>
       </c>
       <c r="G100" t="n">
-        <v>14285</v>
+        <v>10693</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>89.59999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="101">
@@ -4556,22 +4556,22 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>12795</v>
+        <v>14101</v>
       </c>
       <c r="C101" t="n">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D101" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E101" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>1346</v>
+        <v>1251</v>
       </c>
       <c r="G101" t="n">
-        <v>14285</v>
+        <v>15500</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>89.59999999999999</v>
+        <v>91</v>
       </c>
       <c r="K101" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="102">
@@ -4597,22 +4597,22 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>12795</v>
+        <v>11067</v>
       </c>
       <c r="C102" t="n">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D102" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E102" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F102" t="n">
-        <v>1346</v>
+        <v>1237</v>
       </c>
       <c r="G102" t="n">
-        <v>14285</v>
+        <v>12472</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -4625,10 +4625,10 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>89.59999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="K102" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="103">
@@ -4638,22 +4638,22 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>12795</v>
+        <v>10580</v>
       </c>
       <c r="C103" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D103" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E103" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F103" t="n">
-        <v>1346</v>
+        <v>1141</v>
       </c>
       <c r="G103" t="n">
-        <v>14285</v>
+        <v>11841</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -4666,10 +4666,10 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>89.59999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -4679,22 +4679,22 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>12795</v>
+        <v>10094</v>
       </c>
       <c r="C104" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D104" t="n">
         <v>17</v>
       </c>
       <c r="E104" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F104" t="n">
-        <v>1346</v>
+        <v>1257</v>
       </c>
       <c r="G104" t="n">
-        <v>14285</v>
+        <v>11491</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -4707,10 +4707,10 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>89.59999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="K104" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4720,22 +4720,22 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>12795</v>
+        <v>10088</v>
       </c>
       <c r="C105" t="n">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D105" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E105" t="n">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="F105" t="n">
-        <v>1346</v>
+        <v>1267</v>
       </c>
       <c r="G105" t="n">
-        <v>14285</v>
+        <v>11577</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>89.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K105" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="106">
@@ -4761,22 +4761,22 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>12795</v>
+        <v>13874</v>
       </c>
       <c r="C106" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D106" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E106" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F106" t="n">
-        <v>1346</v>
+        <v>1284</v>
       </c>
       <c r="G106" t="n">
-        <v>14285</v>
+        <v>15310</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>89.59999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="K106" t="n">
         <v>1.4</v>
@@ -4802,22 +4802,22 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>12795</v>
+        <v>13270</v>
       </c>
       <c r="C107" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D107" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E107" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F107" t="n">
-        <v>1346</v>
+        <v>1496</v>
       </c>
       <c r="G107" t="n">
-        <v>14285</v>
+        <v>14907</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4830,10 +4830,10 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>89.59999999999999</v>
+        <v>89</v>
       </c>
       <c r="K107" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -4843,22 +4843,22 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>12795</v>
+        <v>10444</v>
       </c>
       <c r="C108" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D108" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E108" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F108" t="n">
-        <v>1346</v>
+        <v>1135</v>
       </c>
       <c r="G108" t="n">
-        <v>14285</v>
+        <v>11711</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>89.59999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="K108" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="109">
@@ -4884,22 +4884,22 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>12795</v>
+        <v>15769</v>
       </c>
       <c r="C109" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D109" t="n">
+        <v>35</v>
+      </c>
+      <c r="E109" t="n">
         <v>17</v>
       </c>
-      <c r="E109" t="n">
-        <v>34</v>
-      </c>
       <c r="F109" t="n">
-        <v>1346</v>
+        <v>1292</v>
       </c>
       <c r="G109" t="n">
-        <v>14285</v>
+        <v>17174</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>89.59999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="K109" t="n">
         <v>1.4</v>
@@ -4966,22 +4966,22 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>12795</v>
+        <v>6836</v>
       </c>
       <c r="C111" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D111" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E111" t="n">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="F111" t="n">
-        <v>1346</v>
+        <v>1272</v>
       </c>
       <c r="G111" t="n">
-        <v>14285</v>
+        <v>8331</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4994,10 +4994,10 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>89.59999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="112">
@@ -5007,22 +5007,22 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>12795</v>
+        <v>10769</v>
       </c>
       <c r="C112" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D112" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E112" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F112" t="n">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G112" t="n">
-        <v>14285</v>
+        <v>12263</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -5035,10 +5035,10 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>89.59999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="K112" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="113">
@@ -5048,22 +5048,22 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>12795</v>
+        <v>18581</v>
       </c>
       <c r="C113" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D113" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E113" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F113" t="n">
-        <v>1346</v>
+        <v>1200</v>
       </c>
       <c r="G113" t="n">
-        <v>14285</v>
+        <v>19938</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -5076,10 +5076,10 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>89.59999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="K113" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="114">
@@ -5089,22 +5089,22 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>12795</v>
+        <v>12114</v>
       </c>
       <c r="C114" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D114" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E114" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F114" t="n">
-        <v>1346</v>
+        <v>1271</v>
       </c>
       <c r="G114" t="n">
-        <v>14285</v>
+        <v>13558</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -5117,10 +5117,10 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>89.59999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="K114" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>12795</v>
+        <v>11804</v>
       </c>
       <c r="C115" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D115" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E115" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F115" t="n">
-        <v>1346</v>
+        <v>1202</v>
       </c>
       <c r="G115" t="n">
-        <v>14285</v>
+        <v>13201</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -5158,10 +5158,10 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>89.59999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -5171,22 +5171,22 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>12795</v>
+        <v>10403</v>
       </c>
       <c r="C116" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D116" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E116" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F116" t="n">
-        <v>1346</v>
+        <v>1278</v>
       </c>
       <c r="G116" t="n">
-        <v>14285</v>
+        <v>11840</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -5199,10 +5199,10 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>89.59999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="117">
@@ -5212,22 +5212,22 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>12795</v>
+        <v>12019</v>
       </c>
       <c r="C117" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D117" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E117" t="n">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="F117" t="n">
-        <v>1346</v>
+        <v>1383</v>
       </c>
       <c r="G117" t="n">
-        <v>14285</v>
+        <v>13647</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -5240,10 +5240,10 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>89.59999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K117" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -5253,22 +5253,22 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>12795</v>
+        <v>15818</v>
       </c>
       <c r="C118" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D118" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E118" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F118" t="n">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="G118" t="n">
-        <v>14285</v>
+        <v>17269</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -5281,10 +5281,10 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>89.59999999999999</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="K118" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="119">
@@ -5294,22 +5294,22 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>12795</v>
+        <v>14247</v>
       </c>
       <c r="C119" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D119" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E119" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F119" t="n">
-        <v>1346</v>
+        <v>1864</v>
       </c>
       <c r="G119" t="n">
-        <v>14285</v>
+        <v>16251</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -5322,10 +5322,10 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>89.59999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="K119" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -5335,22 +5335,22 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>12795</v>
+        <v>11750</v>
       </c>
       <c r="C120" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D120" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E120" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F120" t="n">
-        <v>1346</v>
+        <v>1412</v>
       </c>
       <c r="G120" t="n">
-        <v>14285</v>
+        <v>13346</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -5363,10 +5363,10 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>89.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="K120" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -5376,22 +5376,22 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>12795</v>
+        <v>17818</v>
       </c>
       <c r="C121" t="n">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D121" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E121" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F121" t="n">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="G121" t="n">
-        <v>14285</v>
+        <v>19289</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>89.59999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="K121" t="n">
         <v>1.4</v>
@@ -5417,22 +5417,22 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>12795</v>
+        <v>12320</v>
       </c>
       <c r="C122" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D122" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E122" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F122" t="n">
-        <v>1346</v>
+        <v>1588</v>
       </c>
       <c r="G122" t="n">
-        <v>14285</v>
+        <v>14039</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -5445,10 +5445,10 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>89.59999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="K122" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="123">
@@ -5458,22 +5458,22 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>12795</v>
+        <v>5689</v>
       </c>
       <c r="C123" t="n">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="D123" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E123" t="n">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F123" t="n">
-        <v>1346</v>
+        <v>1027</v>
       </c>
       <c r="G123" t="n">
-        <v>14285</v>
+        <v>6857</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -5486,10 +5486,10 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>89.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="K123" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="124">
@@ -5499,22 +5499,22 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>12795</v>
+        <v>363</v>
       </c>
       <c r="C124" t="n">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D124" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F124" t="n">
-        <v>1346</v>
+        <v>367</v>
       </c>
       <c r="G124" t="n">
-        <v>14285</v>
+        <v>760</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>89.59999999999999</v>
+        <v>47.8</v>
       </c>
       <c r="K124" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="125">
@@ -5540,22 +5540,22 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>12795</v>
+        <v>28</v>
       </c>
       <c r="C125" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1346</v>
+        <v>92</v>
       </c>
       <c r="G125" t="n">
-        <v>14285</v>
+        <v>124</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>89.59999999999999</v>
+        <v>22.6</v>
       </c>
       <c r="K125" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="126">
@@ -5581,22 +5581,22 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>12795</v>
+        <v>30</v>
       </c>
       <c r="C126" t="n">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D126" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>1346</v>
+        <v>102</v>
       </c>
       <c r="G126" t="n">
-        <v>14285</v>
+        <v>137</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>89.59999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="K126" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
